--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2792.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2792.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169496960798611</v>
+        <v>1.000680088996887</v>
       </c>
       <c r="B1">
-        <v>2.436520497469612</v>
+        <v>1.799864172935486</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.05289888381958</v>
       </c>
       <c r="D1">
-        <v>2.366527082054855</v>
+        <v>1.428756713867188</v>
       </c>
       <c r="E1">
-        <v>1.231898457463034</v>
+        <v>1.344442129135132</v>
       </c>
     </row>
   </sheetData>
